--- a/business/stock details (1).xlsx
+++ b/business/stock details (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14295" windowHeight="5070"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="14295" windowHeight="5010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="summary" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="emi details till_19_nov" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">card!$A$1:$P$20</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="211">
   <si>
     <t>s.no</t>
   </si>
@@ -634,6 +635,27 @@
   </si>
   <si>
     <t>redmi 6 pro 4/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>amoount</t>
+  </si>
+  <si>
+    <t>hdfc</t>
+  </si>
+  <si>
+    <t>citi</t>
+  </si>
+  <si>
+    <t>dop</t>
+  </si>
+  <si>
+    <t>sbi</t>
   </si>
 </sst>
 </file>
@@ -1039,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3659,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:D76"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5935,4 +5957,404 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>2441.5500000000002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43408</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>3193.56</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4">
+        <v>9499</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5">
+        <v>7709.15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43408</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>1333.12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43487</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43518</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43546</v>
+      </c>
+      <c r="I6" s="4">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7">
+        <v>2248.17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43487</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43518</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43546</v>
+      </c>
+      <c r="I7" s="4">
+        <v>43577</v>
+      </c>
+      <c r="T7">
+        <f>6300*4</f>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8">
+        <v>3082.83</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43487</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43518</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43546</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43577</v>
+      </c>
+      <c r="T8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9">
+        <v>3666.33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43426</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43456</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43487</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43518</v>
+      </c>
+      <c r="H9" s="4">
+        <v>43546</v>
+      </c>
+      <c r="I9" s="4">
+        <v>43577</v>
+      </c>
+      <c r="T9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10">
+        <v>2098.4899999999998</v>
+      </c>
+      <c r="T10">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11">
+        <v>2248.17</v>
+      </c>
+      <c r="N11">
+        <v>2289.48</v>
+      </c>
+      <c r="O11">
+        <v>2968.11</v>
+      </c>
+      <c r="T11" s="2">
+        <f>SUM(T7:T10)</f>
+        <v>53839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>3666.33</v>
+      </c>
+      <c r="N12">
+        <v>126.72</v>
+      </c>
+      <c r="O12">
+        <v>198.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13">
+        <v>5297.63</v>
+      </c>
+      <c r="N13">
+        <v>25.35</v>
+      </c>
+      <c r="O13">
+        <v>27.23</v>
+      </c>
+      <c r="P13">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="Q13">
+        <v>140.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>3106.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15">
+        <v>4357.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16">
+        <v>3504.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/business/stock details (1).xlsx
+++ b/business/stock details (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="14295" windowHeight="5010" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="14295" windowHeight="4950" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
     <sheet name="emi details till_19_nov" sheetId="7" r:id="rId7"/>
+    <sheet name="card_details" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">card!$A$1:$P$20</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="214">
   <si>
     <t>s.no</t>
   </si>
@@ -656,6 +657,15 @@
   </si>
   <si>
     <t>sbi</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>emi_</t>
+  </si>
+  <si>
+    <t>till 10th dec</t>
   </si>
 </sst>
 </file>
@@ -727,7 +737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -735,11 +745,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -758,6 +783,8 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,7 +3067,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,8 +3539,8 @@
         <v>97</v>
       </c>
       <c r="D18">
-        <f>6300*8</f>
-        <v>50400</v>
+        <f>6300*6</f>
+        <v>37800</v>
       </c>
       <c r="H18">
         <v>50400</v>
@@ -5961,10 +5988,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5973,17 +6000,17 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5997,7 +6024,7 @@
       <c r="C2">
         <v>2441.5500000000002</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>43408</v>
       </c>
       <c r="E2" s="4">
@@ -6086,7 +6113,7 @@
       <c r="C5">
         <v>7709.15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>43408</v>
       </c>
       <c r="E5" s="4">
@@ -6232,6 +6259,24 @@
       <c r="C10">
         <v>2098.4899999999998</v>
       </c>
+      <c r="E10" s="4">
+        <v>43435</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43497</v>
+      </c>
+      <c r="H10" s="4">
+        <v>43525</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43556</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43586</v>
+      </c>
       <c r="T10">
         <v>8639</v>
       </c>
@@ -6246,6 +6291,24 @@
       <c r="C11">
         <v>2248.17</v>
       </c>
+      <c r="E11" s="4">
+        <v>43435</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43497</v>
+      </c>
+      <c r="H11" s="4">
+        <v>43525</v>
+      </c>
+      <c r="I11" s="4">
+        <v>43556</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43586</v>
+      </c>
       <c r="N11">
         <v>2289.48</v>
       </c>
@@ -6267,6 +6330,24 @@
       <c r="C12">
         <v>3666.33</v>
       </c>
+      <c r="E12" s="4">
+        <v>43435</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43497</v>
+      </c>
+      <c r="H12" s="4">
+        <v>43525</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43556</v>
+      </c>
+      <c r="J12" s="4">
+        <v>43586</v>
+      </c>
       <c r="N12">
         <v>126.72</v>
       </c>
@@ -6284,6 +6365,24 @@
       <c r="C13">
         <v>5297.63</v>
       </c>
+      <c r="E13" s="4">
+        <v>43435</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43466</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43497</v>
+      </c>
+      <c r="H13" s="4">
+        <v>43525</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43556</v>
+      </c>
+      <c r="J13" s="4">
+        <v>43586</v>
+      </c>
       <c r="N13">
         <v>25.35</v>
       </c>
@@ -6307,6 +6406,24 @@
       <c r="C14">
         <v>3106.63</v>
       </c>
+      <c r="D14" s="15">
+        <v>43408</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H14" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43194</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -6318,6 +6435,24 @@
       <c r="C15">
         <v>4357.45</v>
       </c>
+      <c r="D15" s="15">
+        <v>43408</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H15" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I15" s="4">
+        <v>43194</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6329,29 +6464,364 @@
       <c r="C16">
         <v>3504.32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F16" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H16" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J16" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1949.67</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43408</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H17" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I17" s="4">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1199.71</v>
+      </c>
+      <c r="D18" s="7">
+        <v>43408</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H18" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I18" s="4">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>207</v>
+      </c>
+      <c r="C19">
+        <v>1216.49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43408</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H19" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I19" s="4">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20">
+        <v>5666.16</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H20" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I20" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J20" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21">
+        <v>1766.48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H21" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J21" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22">
+        <v>1649.85</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43438</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43104</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43135</v>
+      </c>
+      <c r="H22" s="4">
+        <v>43163</v>
+      </c>
+      <c r="I22" s="4">
+        <v>43194</v>
+      </c>
+      <c r="J22" s="4">
+        <v>43224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>37800</v>
+      </c>
+      <c r="L2">
+        <v>25200</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>90000</v>
+      </c>
+      <c r="L3">
+        <v>10000</v>
+      </c>
+      <c r="O3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>100000</v>
+      </c>
+      <c r="S10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>90000</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>37800</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>53839</v>
+      </c>
+      <c r="S13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>70901</v>
+      </c>
+      <c r="S14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>73622</v>
+      </c>
+      <c r="S15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R16" s="5">
+        <f>SUM(R10:R15)</f>
+        <v>426162</v>
       </c>
     </row>
   </sheetData>
